--- a/test/Bing.Offices.Tests/Resources/Bugs/issue5.xlsx
+++ b/test/Bing.Offices.Tests/Resources/Bugs/issue5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20338"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jianx\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bing_Framework\Bing.Offices\test\Bing.Offices.Tests\Resources\Bugs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743303B2-CF19-44EE-A06E-C21803AC2A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7DCD27-3503-498E-8635-DE1D21C5BD06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="2625" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -622,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -654,45 +654,50 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="16.5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="16.5">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" ht="16.5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="16.5">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="11" spans="1:12">
-      <c r="L11" s="7"/>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="L12" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A3 A4:A5 A6:A7" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A4 A5:A6 A7:A8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>5</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2:B5 B6:B7 C8:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2:B6 B7:B8 C9:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
